--- a/sample_dirty_data.xlsx
+++ b/sample_dirty_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JYOTI KATHALE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/260bca212dc358b7/Desktop/projects DATA/excel data pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63C0CA87-7BDD-4D4B-BA47-2873F7344614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{63C0CA87-7BDD-4D4B-BA47-2873F7344614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49E94C0F-84F9-4D6E-846C-7BFEA49AE80F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{613C887A-B9A8-4C09-B57E-2888FFE54C58}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,24 @@
   </si>
   <si>
     <t>Frank</t>
+  </si>
+  <si>
+    <t>Nikhil</t>
+  </si>
+  <si>
+    <t>thampo</t>
+  </si>
+  <si>
+    <t>baithal</t>
+  </si>
+  <si>
+    <t>rahi</t>
+  </si>
+  <si>
+    <t>ke</t>
+  </si>
+  <si>
+    <t>HEHEHHE</t>
   </si>
 </sst>
 </file>
@@ -598,6 +616,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -917,9 +939,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826EB525-FF37-4441-9023-9CE457F59DFA}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1217,6 +1241,66 @@
         <v>6</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44997</v>
+      </c>
+      <c r="D27">
+        <v>99</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sample_dirty_data.xlsx
+++ b/sample_dirty_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/260bca212dc358b7/Desktop/projects DATA/excel data pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{63C0CA87-7BDD-4D4B-BA47-2873F7344614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49E94C0F-84F9-4D6E-846C-7BFEA49AE80F}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{63C0CA87-7BDD-4D4B-BA47-2873F7344614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{606D249A-9344-4E50-9F38-0ECE131FD2C6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{613C887A-B9A8-4C09-B57E-2888FFE54C58}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -73,7 +73,10 @@
     <t>ke</t>
   </si>
   <si>
-    <t>HEHEHHE</t>
+    <t>12312312asdad</t>
+  </si>
+  <si>
+    <t>asjbd211323</t>
   </si>
 </sst>
 </file>
@@ -941,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826EB525-FF37-4441-9023-9CE457F59DFA}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,19 +1289,19 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
+        <v>12312</v>
+      </c>
+      <c r="B27">
+        <v>213123</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="1">
-        <v>44997</v>
-      </c>
       <c r="D27">
-        <v>99</v>
+        <v>191919</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
